--- a/CS389_Rubric_v4_May_2018 (2).xlsx
+++ b/CS389_Rubric_v4_May_2018 (2).xlsx
@@ -17,12 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>List of changes:</t>
-  </si>
-  <si>
-    <t>CS 389 Software Engineering: Capstone Project Rubric (Designed in 2015 Updated in May 2018)</t>
   </si>
   <si>
     <t>Addition of a section "Originality"</t>
@@ -46,9 +43,6 @@
     <t>Use of specific tools - GitHub, Slack etc.</t>
   </si>
   <si>
-    <t>Project Title:Coffi</t>
-  </si>
-  <si>
     <t>Deliverable quality -&gt; Software quality</t>
   </si>
   <si>
@@ -61,22 +55,31 @@
     <t>More specificity in team dynamics</t>
   </si>
   <si>
-    <t>Semester: Spr2020</t>
-  </si>
-  <si>
     <t>Written work</t>
   </si>
   <si>
     <t>List of the artifacts</t>
   </si>
   <si>
-    <t>Grade (1-4)</t>
+    <t>CS 389 Software Engineering: Capstone Project Rubric (Designed in 2015 Updated in May 2018)</t>
   </si>
   <si>
     <t>Oral presentation</t>
   </si>
   <si>
     <t>Originality</t>
+  </si>
+  <si>
+    <t>Project Title:Coffi</t>
+  </si>
+  <si>
+    <t>Semester: Spr2020</t>
+  </si>
+  <si>
+    <t>Grade (1-4)</t>
+  </si>
+  <si>
+    <t>Team Members: Kyle Bittner, Noah Eli, Blake Williams, Allan Krasner, Sven Nussgruber</t>
   </si>
   <si>
     <r>
@@ -546,6 +549,11 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF0070C0"/>
@@ -555,11 +563,6 @@
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -898,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -919,33 +922,36 @@
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -970,7 +976,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -991,11 +997,11 @@
     <xf borderId="21" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1254,7 +1260,7 @@
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1284,17 +1290,19 @@
     </row>
     <row r="2" ht="34.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1317,13 +1325,13 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" ht="34.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>20</v>
+      <c r="A3" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1347,21 +1355,21 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>25</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1385,21 +1393,21 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4.0</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>3.0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>2.0</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <v>1.0</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20" t="s">
-        <v>26</v>
+      <c r="E5" s="16"/>
+      <c r="F5" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1423,20 +1431,20 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" ht="66.0" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1459,15 +1467,15 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="51.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>31</v>
+      <c r="A7" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21" t="s">
-        <v>32</v>
+      <c r="E7" s="27"/>
+      <c r="F7" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1491,19 +1499,19 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1527,19 +1535,19 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="18">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>3.0</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>2.0</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>1.0</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1563,20 +1571,20 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10" ht="64.5" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1599,14 +1607,14 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11" ht="48.0" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>41</v>
+      <c r="A11" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1629,21 +1637,21 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="30" t="s">
-        <v>42</v>
+      <c r="D12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1667,20 +1675,20 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="18">
         <v>4.0</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <v>3.0</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>2.0</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20">
         <v>1.0</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1703,19 +1711,19 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="D14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1739,13 +1747,13 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15" ht="34.5" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>47</v>
+      <c r="A15" s="32" t="s">
+        <v>48</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1769,19 +1777,19 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="16"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1805,19 +1813,19 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17">
+      <c r="A17" s="18">
         <v>4.0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="18">
         <v>3.0</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>2.0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <v>1.0</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1841,19 +1849,19 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18" ht="67.5" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="D18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1877,15 +1885,15 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19" ht="47.25" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>52</v>
+      <c r="A19" s="32" t="s">
+        <v>53</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="21" t="s">
-        <v>53</v>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1909,19 +1917,19 @@
       <c r="Z19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1945,21 +1953,21 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="17">
+      <c r="A21" s="18">
         <v>4.0</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="18">
         <v>3.0</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>2.0</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>1.0</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1983,20 +1991,20 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2019,14 +2027,14 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23" ht="34.5" customHeight="1">
-      <c r="A23" s="35" t="s">
-        <v>59</v>
+      <c r="A23" s="36" t="s">
+        <v>60</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="20"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2049,19 +2057,19 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="C24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="40"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2085,20 +2093,20 @@
       <c r="Z24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="40">
+      <c r="A25" s="41">
         <v>4.0</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="41">
         <v>3.0</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="41">
         <v>2.0</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="41">
         <v>1.0</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2121,51 +2129,51 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26" ht="93.75" customHeight="1">
-      <c r="A26" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="C26" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-    </row>
-    <row r="27" ht="48.0" customHeight="1">
-      <c r="A27" s="35" t="s">
+      <c r="D26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="29" t="s">
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+    </row>
+    <row r="27" ht="48.0" customHeight="1">
+      <c r="A27" s="36" t="s">
         <v>65</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2189,19 +2197,19 @@
       <c r="Z27" s="6"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="C28" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="D28" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="40"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -2225,19 +2233,19 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29" ht="28.5" customHeight="1">
-      <c r="A29" s="40">
+      <c r="A29" s="41">
         <v>4.0</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="41">
         <v>3.0</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="41">
         <v>2.0</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="41">
         <v>1.0</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2261,19 +2269,19 @@
       <c r="Z29" s="6"/>
     </row>
     <row r="30" ht="72.0" customHeight="1">
-      <c r="A30" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="D30" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="45"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -2297,15 +2305,15 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -2329,11 +2337,11 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2357,8 +2365,8 @@
       <c r="Z32" s="6"/>
     </row>
     <row r="33" ht="103.5" customHeight="1">
-      <c r="A33" s="52" t="s">
-        <v>72</v>
+      <c r="A33" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -29515,79 +29523,79 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
